--- a/user-data/gni-usd-2005/gni-usd-2005.xlsx
+++ b/user-data/gni-usd-2005/gni-usd-2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,32 +1739,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
@@ -1783,11 +1780,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gni-usd-2005/gni-usd-2005.xlsx
+++ b/user-data/gni-usd-2005/gni-usd-2005.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gni-usd-2005/gni-usd-2005.xlsx
+++ b/user-data/gni-usd-2005/gni-usd-2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1782,6 +1785,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gni-usd-2005/gni-usd-2005.xlsx
+++ b/user-data/gni-usd-2005/gni-usd-2005.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7978,7 +7978,9 @@
       <c r="C467" t="n">
         <v>2000</v>
       </c>
-      <c r="D467"/>
+      <c r="D467" t="n">
+        <v>3895776665.88013</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -7990,7 +7992,9 @@
       <c r="C468" t="n">
         <v>2001</v>
       </c>
-      <c r="D468"/>
+      <c r="D468" t="n">
+        <v>4201846004.17414</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -8002,7 +8006,9 @@
       <c r="C469" t="n">
         <v>2002</v>
       </c>
-      <c r="D469"/>
+      <c r="D469" t="n">
+        <v>4436469201.6836</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -8014,7 +8020,9 @@
       <c r="C470" t="n">
         <v>2003</v>
       </c>
-      <c r="D470"/>
+      <c r="D470" t="n">
+        <v>4843268408.91928</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -8026,7 +8034,9 @@
       <c r="C471" t="n">
         <v>2004</v>
       </c>
-      <c r="D471"/>
+      <c r="D471" t="n">
+        <v>5333123594.0625</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -8039,7 +8049,7 @@
         <v>2005</v>
       </c>
       <c r="D472" t="n">
-        <v>16432852653.3283</v>
+        <v>6005719072.865</v>
       </c>
     </row>
     <row r="473">
@@ -8052,7 +8062,9 @@
       <c r="C473" t="n">
         <v>2006</v>
       </c>
-      <c r="D473"/>
+      <c r="D473" t="n">
+        <v>6666653863.48111</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -8064,7 +8076,9 @@
       <c r="C474" t="n">
         <v>2007</v>
       </c>
-      <c r="D474"/>
+      <c r="D474" t="n">
+        <v>7356681152.26087</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -8076,7 +8090,9 @@
       <c r="C475" t="n">
         <v>2008</v>
       </c>
-      <c r="D475"/>
+      <c r="D475" t="n">
+        <v>7809638363.19815</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -8088,7 +8104,9 @@
       <c r="C476" t="n">
         <v>2009</v>
       </c>
-      <c r="D476"/>
+      <c r="D476" t="n">
+        <v>7811037663.3869</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -8100,7 +8118,9 @@
       <c r="C477" t="n">
         <v>2010</v>
       </c>
-      <c r="D477"/>
+      <c r="D477" t="n">
+        <v>8246726636.70559</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -8112,7 +8132,9 @@
       <c r="C478" t="n">
         <v>2011</v>
       </c>
-      <c r="D478"/>
+      <c r="D478" t="n">
+        <v>8873662171.86469</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -8124,7 +8146,9 @@
       <c r="C479" t="n">
         <v>2012</v>
       </c>
-      <c r="D479"/>
+      <c r="D479" t="n">
+        <v>9556052922.04851</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -8136,7 +8160,9 @@
       <c r="C480" t="n">
         <v>2013</v>
       </c>
-      <c r="D480"/>
+      <c r="D480" t="n">
+        <v>10230077260.5995</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -8161,7 +8187,7 @@
         <v>2000</v>
       </c>
       <c r="D482" t="n">
-        <v>3895776665.88013</v>
+        <v>12937553189.6488</v>
       </c>
     </row>
     <row r="483">
@@ -8175,7 +8201,7 @@
         <v>2001</v>
       </c>
       <c r="D483" t="n">
-        <v>4201846004.17414</v>
+        <v>13422680312.3556</v>
       </c>
     </row>
     <row r="484">
@@ -8189,7 +8215,7 @@
         <v>2002</v>
       </c>
       <c r="D484" t="n">
-        <v>4436469201.6836</v>
+        <v>14119821159.1193</v>
       </c>
     </row>
     <row r="485">
@@ -8203,7 +8229,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>4843268408.91928</v>
+        <v>15031496061.4768</v>
       </c>
     </row>
     <row r="486">
@@ -8217,7 +8243,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>5333123594.0625</v>
+        <v>15798594287.2076</v>
       </c>
     </row>
     <row r="487">
@@ -8231,7 +8257,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>6005719072.865</v>
+        <v>16099188628.4891</v>
       </c>
     </row>
     <row r="488">
@@ -8245,7 +8271,7 @@
         <v>2006</v>
       </c>
       <c r="D488" t="n">
-        <v>6666653863.48111</v>
+        <v>16870168495.5382</v>
       </c>
     </row>
     <row r="489">
@@ -8259,7 +8285,7 @@
         <v>2007</v>
       </c>
       <c r="D489" t="n">
-        <v>7356681152.26087</v>
+        <v>17235207701.5762</v>
       </c>
     </row>
     <row r="490">
@@ -8273,7 +8299,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>7809638363.19815</v>
+        <v>17862667608.3295</v>
       </c>
     </row>
     <row r="491">
@@ -8287,7 +8313,7 @@
         <v>2009</v>
       </c>
       <c r="D491" t="n">
-        <v>7811037663.3869</v>
+        <v>18442586947.9482</v>
       </c>
     </row>
     <row r="492">
@@ -8301,7 +8327,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>8246726636.70559</v>
+        <v>18922025339.5606</v>
       </c>
     </row>
     <row r="493">
@@ -8315,7 +8341,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>8873662171.86469</v>
+        <v>19700900148.1493</v>
       </c>
     </row>
     <row r="494">
@@ -8329,7 +8355,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>9556052922.04851</v>
+        <v>20489201245.9182</v>
       </c>
     </row>
     <row r="495">
@@ -8343,7 +8369,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>10230077260.5995</v>
+        <v>21538701444.0993</v>
       </c>
     </row>
     <row r="496">
@@ -8369,7 +8395,7 @@
         <v>2000</v>
       </c>
       <c r="D497" t="n">
-        <v>12937553189.6488</v>
+        <v>1000524172612.37</v>
       </c>
     </row>
     <row r="498">
@@ -8383,7 +8409,7 @@
         <v>2001</v>
       </c>
       <c r="D498" t="n">
-        <v>13422680312.3556</v>
+        <v>1015467571904.28</v>
       </c>
     </row>
     <row r="499">
@@ -8397,7 +8423,7 @@
         <v>2002</v>
       </c>
       <c r="D499" t="n">
-        <v>14119821159.1193</v>
+        <v>1047134201413.85</v>
       </c>
     </row>
     <row r="500">
@@ -8411,7 +8437,7 @@
         <v>2003</v>
       </c>
       <c r="D500" t="n">
-        <v>15031496061.4768</v>
+        <v>1067673210912.1</v>
       </c>
     </row>
     <row r="501">
@@ -8425,7 +8451,7 @@
         <v>2004</v>
       </c>
       <c r="D501" t="n">
-        <v>15798594287.2076</v>
+        <v>1104248036856.42</v>
       </c>
     </row>
     <row r="502">
@@ -8439,7 +8465,7 @@
         <v>2005</v>
       </c>
       <c r="D502" t="n">
-        <v>16099188628.4891</v>
+        <v>1140229252686.86</v>
       </c>
     </row>
     <row r="503">
@@ -8453,7 +8479,7 @@
         <v>2006</v>
       </c>
       <c r="D503" t="n">
-        <v>16870168495.5382</v>
+        <v>1175549409072.03</v>
       </c>
     </row>
     <row r="504">
@@ -8467,7 +8493,7 @@
         <v>2007</v>
       </c>
       <c r="D504" t="n">
-        <v>17235207701.5762</v>
+        <v>1200468038335.14</v>
       </c>
     </row>
     <row r="505">
@@ -8481,7 +8507,7 @@
         <v>2008</v>
       </c>
       <c r="D505" t="n">
-        <v>17862667608.3295</v>
+        <v>1213718580435.41</v>
       </c>
     </row>
     <row r="506">
@@ -8495,7 +8521,7 @@
         <v>2009</v>
       </c>
       <c r="D506" t="n">
-        <v>18442586947.9482</v>
+        <v>1178479566354.25</v>
       </c>
     </row>
     <row r="507">
@@ -8509,7 +8535,7 @@
         <v>2010</v>
       </c>
       <c r="D507" t="n">
-        <v>18922025339.5606</v>
+        <v>1215678682086.19</v>
       </c>
     </row>
     <row r="508">
@@ -8523,7 +8549,7 @@
         <v>2011</v>
       </c>
       <c r="D508" t="n">
-        <v>19700900148.1493</v>
+        <v>1247437228727.46</v>
       </c>
     </row>
     <row r="509">
@@ -8537,7 +8563,7 @@
         <v>2012</v>
       </c>
       <c r="D509" t="n">
-        <v>20489201245.9182</v>
+        <v>1269453951314.42</v>
       </c>
     </row>
     <row r="510">
@@ -8551,7 +8577,7 @@
         <v>2013</v>
       </c>
       <c r="D510" t="n">
-        <v>21538701444.0993</v>
+        <v>1299425622044.09</v>
       </c>
     </row>
     <row r="511">
@@ -8576,9 +8602,7 @@
       <c r="C512" t="n">
         <v>2000</v>
       </c>
-      <c r="D512" t="n">
-        <v>1000524172612.37</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8590,9 +8614,7 @@
       <c r="C513" t="n">
         <v>2001</v>
       </c>
-      <c r="D513" t="n">
-        <v>1015467571904.28</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8604,9 +8626,7 @@
       <c r="C514" t="n">
         <v>2002</v>
       </c>
-      <c r="D514" t="n">
-        <v>1047134201413.85</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8618,9 +8638,7 @@
       <c r="C515" t="n">
         <v>2003</v>
       </c>
-      <c r="D515" t="n">
-        <v>1067673210912.1</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8632,9 +8650,7 @@
       <c r="C516" t="n">
         <v>2004</v>
       </c>
-      <c r="D516" t="n">
-        <v>1104248036856.42</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8647,7 +8663,7 @@
         <v>2005</v>
       </c>
       <c r="D517" t="n">
-        <v>1140229252686.86</v>
+        <v>938319881.232312</v>
       </c>
     </row>
     <row r="518">
@@ -8660,9 +8676,7 @@
       <c r="C518" t="n">
         <v>2006</v>
       </c>
-      <c r="D518" t="n">
-        <v>1175549409072.03</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8674,9 +8688,7 @@
       <c r="C519" t="n">
         <v>2007</v>
       </c>
-      <c r="D519" t="n">
-        <v>1200468038335.14</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8688,9 +8700,7 @@
       <c r="C520" t="n">
         <v>2008</v>
       </c>
-      <c r="D520" t="n">
-        <v>1213718580435.41</v>
-      </c>
+      <c r="D520"/>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8702,9 +8712,7 @@
       <c r="C521" t="n">
         <v>2009</v>
       </c>
-      <c r="D521" t="n">
-        <v>1178479566354.25</v>
-      </c>
+      <c r="D521"/>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -8716,9 +8724,7 @@
       <c r="C522" t="n">
         <v>2010</v>
       </c>
-      <c r="D522" t="n">
-        <v>1215678682086.19</v>
-      </c>
+      <c r="D522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -8730,9 +8736,7 @@
       <c r="C523" t="n">
         <v>2011</v>
       </c>
-      <c r="D523" t="n">
-        <v>1247437228727.46</v>
-      </c>
+      <c r="D523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -8744,9 +8748,7 @@
       <c r="C524" t="n">
         <v>2012</v>
       </c>
-      <c r="D524" t="n">
-        <v>1269453951314.42</v>
-      </c>
+      <c r="D524"/>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -8758,9 +8760,7 @@
       <c r="C525" t="n">
         <v>2013</v>
       </c>
-      <c r="D525" t="n">
-        <v>1299425622044.09</v>
-      </c>
+      <c r="D525"/>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -8784,7 +8784,9 @@
       <c r="C527" t="n">
         <v>2000</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>1215258786.80143</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -8796,7 +8798,9 @@
       <c r="C528" t="n">
         <v>2001</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>1277103511.35038</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -8808,7 +8812,9 @@
       <c r="C529" t="n">
         <v>2002</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>1322273027.39273</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -8820,7 +8826,9 @@
       <c r="C530" t="n">
         <v>2003</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>1259376683.97121</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -8832,7 +8840,9 @@
       <c r="C531" t="n">
         <v>2004</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>1323594252.6461</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -8845,7 +8855,7 @@
         <v>2005</v>
       </c>
       <c r="D532" t="n">
-        <v>938319881.232312</v>
+        <v>1340079423.86551</v>
       </c>
     </row>
     <row r="533">
@@ -8858,7 +8868,9 @@
       <c r="C533" t="n">
         <v>2006</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>1441637270.85877</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -8870,7 +8882,9 @@
       <c r="C534" t="n">
         <v>2007</v>
       </c>
-      <c r="D534"/>
+      <c r="D534" t="n">
+        <v>1561054397.85884</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -8882,7 +8896,9 @@
       <c r="C535" t="n">
         <v>2008</v>
       </c>
-      <c r="D535"/>
+      <c r="D535" t="n">
+        <v>1612870294.49378</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -8966,9 +8982,7 @@
       <c r="C542" t="n">
         <v>2000</v>
       </c>
-      <c r="D542" t="n">
-        <v>1215258786.80143</v>
-      </c>
+      <c r="D542"/>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -8980,9 +8994,7 @@
       <c r="C543" t="n">
         <v>2001</v>
       </c>
-      <c r="D543" t="n">
-        <v>1277103511.35038</v>
-      </c>
+      <c r="D543"/>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -8994,9 +9006,7 @@
       <c r="C544" t="n">
         <v>2002</v>
       </c>
-      <c r="D544" t="n">
-        <v>1322273027.39273</v>
-      </c>
+      <c r="D544"/>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -9008,9 +9018,7 @@
       <c r="C545" t="n">
         <v>2003</v>
       </c>
-      <c r="D545" t="n">
-        <v>1259376683.97121</v>
-      </c>
+      <c r="D545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -9022,9 +9030,7 @@
       <c r="C546" t="n">
         <v>2004</v>
       </c>
-      <c r="D546" t="n">
-        <v>1323594252.6461</v>
-      </c>
+      <c r="D546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -9036,9 +9042,7 @@
       <c r="C547" t="n">
         <v>2005</v>
       </c>
-      <c r="D547" t="n">
-        <v>1340079423.86551</v>
-      </c>
+      <c r="D547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
@@ -9050,9 +9054,7 @@
       <c r="C548" t="n">
         <v>2006</v>
       </c>
-      <c r="D548" t="n">
-        <v>1441637270.85877</v>
-      </c>
+      <c r="D548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9064,9 +9066,7 @@
       <c r="C549" t="n">
         <v>2007</v>
       </c>
-      <c r="D549" t="n">
-        <v>1561054397.85884</v>
-      </c>
+      <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -9078,9 +9078,7 @@
       <c r="C550" t="n">
         <v>2008</v>
       </c>
-      <c r="D550" t="n">
-        <v>1612870294.49378</v>
-      </c>
+      <c r="D550"/>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -9164,7 +9162,9 @@
       <c r="C557" t="n">
         <v>2000</v>
       </c>
-      <c r="D557"/>
+      <c r="D557" t="n">
+        <v>3001026482.96485</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -9176,7 +9176,9 @@
       <c r="C558" t="n">
         <v>2001</v>
       </c>
-      <c r="D558"/>
+      <c r="D558" t="n">
+        <v>3342748523.20584</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9188,7 +9190,9 @@
       <c r="C559" t="n">
         <v>2002</v>
       </c>
-      <c r="D559"/>
+      <c r="D559" t="n">
+        <v>3505230563.52313</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -9200,7 +9204,9 @@
       <c r="C560" t="n">
         <v>2003</v>
       </c>
-      <c r="D560"/>
+      <c r="D560" t="n">
+        <v>3216154662.94968</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -9212,7 +9218,9 @@
       <c r="C561" t="n">
         <v>2004</v>
       </c>
-      <c r="D561"/>
+      <c r="D561" t="n">
+        <v>4523320577.96</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
@@ -9224,7 +9232,9 @@
       <c r="C562" t="n">
         <v>2005</v>
       </c>
-      <c r="D562"/>
+      <c r="D562" t="n">
+        <v>5622160309.08409</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -9345,7 +9355,7 @@
         <v>2000</v>
       </c>
       <c r="D572" t="n">
-        <v>3001026482.96485</v>
+        <v>97809273432.2686</v>
       </c>
     </row>
     <row r="573">
@@ -9359,7 +9369,7 @@
         <v>2001</v>
       </c>
       <c r="D573" t="n">
-        <v>3342748523.20584</v>
+        <v>101296357443.611</v>
       </c>
     </row>
     <row r="574">
@@ -9373,7 +9383,7 @@
         <v>2002</v>
       </c>
       <c r="D574" t="n">
-        <v>3505230563.52313</v>
+        <v>102931150815.737</v>
       </c>
     </row>
     <row r="575">
@@ -9387,7 +9397,7 @@
         <v>2003</v>
       </c>
       <c r="D575" t="n">
-        <v>3216154662.94968</v>
+        <v>105216392836.559</v>
       </c>
     </row>
     <row r="576">
@@ -9401,7 +9411,7 @@
         <v>2004</v>
       </c>
       <c r="D576" t="n">
-        <v>4523320577.96</v>
+        <v>108949357663.241</v>
       </c>
     </row>
     <row r="577">
@@ -9415,7 +9425,7 @@
         <v>2005</v>
       </c>
       <c r="D577" t="n">
-        <v>5622160309.08409</v>
+        <v>113944210966.988</v>
       </c>
     </row>
     <row r="578">
@@ -9428,7 +9438,9 @@
       <c r="C578" t="n">
         <v>2006</v>
       </c>
-      <c r="D578"/>
+      <c r="D578" t="n">
+        <v>113421898590.508</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -9440,7 +9452,9 @@
       <c r="C579" t="n">
         <v>2007</v>
       </c>
-      <c r="D579"/>
+      <c r="D579" t="n">
+        <v>120704291245.254</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -9452,7 +9466,9 @@
       <c r="C580" t="n">
         <v>2008</v>
       </c>
-      <c r="D580"/>
+      <c r="D580" t="n">
+        <v>130681106420.677</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
@@ -9464,7 +9480,9 @@
       <c r="C581" t="n">
         <v>2009</v>
       </c>
-      <c r="D581"/>
+      <c r="D581" t="n">
+        <v>130224861743.726</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -9476,7 +9494,9 @@
       <c r="C582" t="n">
         <v>2010</v>
       </c>
-      <c r="D582"/>
+      <c r="D582" t="n">
+        <v>136676382175.293</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -9488,7 +9508,9 @@
       <c r="C583" t="n">
         <v>2011</v>
       </c>
-      <c r="D583"/>
+      <c r="D583" t="n">
+        <v>146611061561.248</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
@@ -9500,7 +9522,9 @@
       <c r="C584" t="n">
         <v>2012</v>
       </c>
-      <c r="D584"/>
+      <c r="D584" t="n">
+        <v>156819572254.149</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -9512,7 +9536,9 @@
       <c r="C585" t="n">
         <v>2013</v>
       </c>
-      <c r="D585"/>
+      <c r="D585" t="n">
+        <v>163855302164.352</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
@@ -9537,7 +9563,7 @@
         <v>2000</v>
       </c>
       <c r="D587" t="n">
-        <v>97809273432.2686</v>
+        <v>1399832114798.97</v>
       </c>
     </row>
     <row r="588">
@@ -9551,7 +9577,7 @@
         <v>2001</v>
       </c>
       <c r="D588" t="n">
-        <v>101296357443.611</v>
+        <v>1512548272799.14</v>
       </c>
     </row>
     <row r="589">
@@ -9565,7 +9591,7 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>102931150815.737</v>
+        <v>1656846856861.49</v>
       </c>
     </row>
     <row r="590">
@@ -9579,7 +9605,7 @@
         <v>2003</v>
       </c>
       <c r="D590" t="n">
-        <v>105216392836.559</v>
+        <v>1830451402780.66</v>
       </c>
     </row>
     <row r="591">
@@ -9593,7 +9619,7 @@
         <v>2004</v>
       </c>
       <c r="D591" t="n">
-        <v>108949357663.241</v>
+        <v>2022335659518.7</v>
       </c>
     </row>
     <row r="592">
@@ -9607,7 +9633,7 @@
         <v>2005</v>
       </c>
       <c r="D592" t="n">
-        <v>113944210966.988</v>
+        <v>2240793900040.27</v>
       </c>
     </row>
     <row r="593">
@@ -9621,7 +9647,7 @@
         <v>2006</v>
       </c>
       <c r="D593" t="n">
-        <v>113421898590.508</v>
+        <v>2538415813243.29</v>
       </c>
     </row>
     <row r="594">
@@ -9635,7 +9661,7 @@
         <v>2007</v>
       </c>
       <c r="D594" t="n">
-        <v>120704291245.254</v>
+        <v>2910157305227.76</v>
       </c>
     </row>
     <row r="595">
@@ -9649,7 +9675,7 @@
         <v>2008</v>
       </c>
       <c r="D595" t="n">
-        <v>130681106420.677</v>
+        <v>3202832697965.55</v>
       </c>
     </row>
     <row r="596">
@@ -9663,7 +9689,7 @@
         <v>2009</v>
       </c>
       <c r="D596" t="n">
-        <v>130224861743.726</v>
+        <v>3470560710807.94</v>
       </c>
     </row>
     <row r="597">
@@ -9677,7 +9703,7 @@
         <v>2010</v>
       </c>
       <c r="D597" t="n">
-        <v>136676382175.293</v>
+        <v>3823452180801.79</v>
       </c>
     </row>
     <row r="598">
@@ -9691,7 +9717,7 @@
         <v>2011</v>
       </c>
       <c r="D598" t="n">
-        <v>146611061561.248</v>
+        <v>4158066528066.08</v>
       </c>
     </row>
     <row r="599">
@@ -9705,7 +9731,7 @@
         <v>2012</v>
       </c>
       <c r="D599" t="n">
-        <v>156819572254.149</v>
+        <v>4507391998945.02</v>
       </c>
     </row>
     <row r="600">
@@ -9719,7 +9745,7 @@
         <v>2013</v>
       </c>
       <c r="D600" t="n">
-        <v>163855302164.352</v>
+        <v>4841980602267.76</v>
       </c>
     </row>
     <row r="601">
@@ -9745,7 +9771,7 @@
         <v>2000</v>
       </c>
       <c r="D602" t="n">
-        <v>1399832114798.97</v>
+        <v>120050316058.262</v>
       </c>
     </row>
     <row r="603">
@@ -9759,7 +9785,7 @@
         <v>2001</v>
       </c>
       <c r="D603" t="n">
-        <v>1512548272799.14</v>
+        <v>121725741417.032</v>
       </c>
     </row>
     <row r="604">
@@ -9773,7 +9799,7 @@
         <v>2002</v>
       </c>
       <c r="D604" t="n">
-        <v>1656846856861.49</v>
+        <v>124493399780.212</v>
       </c>
     </row>
     <row r="605">
@@ -9787,7 +9813,7 @@
         <v>2003</v>
       </c>
       <c r="D605" t="n">
-        <v>1830451402780.66</v>
+        <v>128427988975.556</v>
       </c>
     </row>
     <row r="606">
@@ -9801,7 +9827,7 @@
         <v>2004</v>
       </c>
       <c r="D606" t="n">
-        <v>2022335659518.7</v>
+        <v>135144874507.512</v>
       </c>
     </row>
     <row r="607">
@@ -9815,7 +9841,7 @@
         <v>2005</v>
       </c>
       <c r="D607" t="n">
-        <v>2240793900040.27</v>
+        <v>141255145063.339</v>
       </c>
     </row>
     <row r="608">
@@ -9829,7 +9855,7 @@
         <v>2006</v>
       </c>
       <c r="D608" t="n">
-        <v>2538415813243.29</v>
+        <v>150809440489.055</v>
       </c>
     </row>
     <row r="609">
@@ -9843,7 +9869,7 @@
         <v>2007</v>
       </c>
       <c r="D609" t="n">
-        <v>2910157305227.76</v>
+        <v>160752454321.937</v>
       </c>
     </row>
     <row r="610">
@@ -9857,7 +9883,7 @@
         <v>2008</v>
       </c>
       <c r="D610" t="n">
-        <v>3202832697965.55</v>
+        <v>165992968260.144</v>
       </c>
     </row>
     <row r="611">
@@ -9871,7 +9897,7 @@
         <v>2009</v>
       </c>
       <c r="D611" t="n">
-        <v>3470560710807.94</v>
+        <v>169444657156.407</v>
       </c>
     </row>
     <row r="612">
@@ -9885,7 +9911,7 @@
         <v>2010</v>
       </c>
       <c r="D612" t="n">
-        <v>3823452180801.79</v>
+        <v>175390013035.563</v>
       </c>
     </row>
     <row r="613">
@@ -9899,7 +9925,7 @@
         <v>2011</v>
       </c>
       <c r="D613" t="n">
-        <v>4158066528066.08</v>
+        <v>185230258498.12</v>
       </c>
     </row>
     <row r="614">
@@ -9913,7 +9939,7 @@
         <v>2012</v>
       </c>
       <c r="D614" t="n">
-        <v>4507391998945.02</v>
+        <v>193914194641.896</v>
       </c>
     </row>
     <row r="615">
@@ -9927,7 +9953,7 @@
         <v>2013</v>
       </c>
       <c r="D615" t="n">
-        <v>4841980602267.76</v>
+        <v>203771418734.545</v>
       </c>
     </row>
     <row r="616">
@@ -9952,9 +9978,7 @@
       <c r="C617" t="n">
         <v>2000</v>
       </c>
-      <c r="D617" t="n">
-        <v>120050316058.262</v>
-      </c>
+      <c r="D617"/>
     </row>
     <row r="618">
       <c r="A618" t="s">
@@ -9967,7 +9991,7 @@
         <v>2001</v>
       </c>
       <c r="D618" t="n">
-        <v>121725741417.032</v>
+        <v>348415591.733809</v>
       </c>
     </row>
     <row r="619">
@@ -9981,7 +10005,7 @@
         <v>2002</v>
       </c>
       <c r="D619" t="n">
-        <v>124493399780.212</v>
+        <v>354283406.230115</v>
       </c>
     </row>
     <row r="620">
@@ -9995,7 +10019,7 @@
         <v>2003</v>
       </c>
       <c r="D620" t="n">
-        <v>128427988975.556</v>
+        <v>361329286.313893</v>
       </c>
     </row>
     <row r="621">
@@ -10009,7 +10033,7 @@
         <v>2004</v>
       </c>
       <c r="D621" t="n">
-        <v>135144874507.512</v>
+        <v>367715427.418712</v>
       </c>
     </row>
     <row r="622">
@@ -10023,7 +10047,7 @@
         <v>2005</v>
       </c>
       <c r="D622" t="n">
-        <v>141255145063.339</v>
+        <v>378701227.497983</v>
       </c>
     </row>
     <row r="623">
@@ -10037,7 +10061,7 @@
         <v>2006</v>
       </c>
       <c r="D623" t="n">
-        <v>150809440489.055</v>
+        <v>389072011.48657</v>
       </c>
     </row>
     <row r="624">
@@ -10051,7 +10075,7 @@
         <v>2007</v>
       </c>
       <c r="D624" t="n">
-        <v>160752454321.937</v>
+        <v>392664004.056555</v>
       </c>
     </row>
     <row r="625">
@@ -10065,7 +10089,7 @@
         <v>2008</v>
       </c>
       <c r="D625" t="n">
-        <v>165992968260.144</v>
+        <v>398236281.068065</v>
       </c>
     </row>
     <row r="626">
@@ -10079,7 +10103,7 @@
         <v>2009</v>
       </c>
       <c r="D626" t="n">
-        <v>169444657156.407</v>
+        <v>408788624.693212</v>
       </c>
     </row>
     <row r="627">
@@ -10093,7 +10117,7 @@
         <v>2010</v>
       </c>
       <c r="D627" t="n">
-        <v>175390013035.563</v>
+        <v>420990130.715215</v>
       </c>
     </row>
     <row r="628">
@@ -10107,7 +10131,7 @@
         <v>2011</v>
       </c>
       <c r="D628" t="n">
-        <v>185230258498.12</v>
+        <v>435920712.727345</v>
       </c>
     </row>
     <row r="629">
@@ -10121,7 +10145,7 @@
         <v>2012</v>
       </c>
       <c r="D629" t="n">
-        <v>193914194641.896</v>
+        <v>449147949.052065</v>
       </c>
     </row>
     <row r="630">
@@ -10135,7 +10159,7 @@
         <v>2013</v>
       </c>
       <c r="D630" t="n">
-        <v>203771418734.545</v>
+        <v>463008610.152647</v>
       </c>
     </row>
     <row r="631">
@@ -10160,7 +10184,9 @@
       <c r="C632" t="n">
         <v>2000</v>
       </c>
-      <c r="D632"/>
+      <c r="D632" t="n">
+        <v>3901896766.10805</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
@@ -10173,7 +10199,7 @@
         <v>2001</v>
       </c>
       <c r="D633" t="n">
-        <v>348415591.733809</v>
+        <v>4275677096.5447</v>
       </c>
     </row>
     <row r="634">
@@ -10187,7 +10213,7 @@
         <v>2002</v>
       </c>
       <c r="D634" t="n">
-        <v>354283406.230115</v>
+        <v>4435671994.00337</v>
       </c>
     </row>
     <row r="635">
@@ -10201,7 +10227,7 @@
         <v>2003</v>
       </c>
       <c r="D635" t="n">
-        <v>361329286.313893</v>
+        <v>5135105944.32836</v>
       </c>
     </row>
     <row r="636">
@@ -10215,7 +10241,7 @@
         <v>2004</v>
       </c>
       <c r="D636" t="n">
-        <v>367715427.418712</v>
+        <v>4042032313.88201</v>
       </c>
     </row>
     <row r="637">
@@ -10229,7 +10255,7 @@
         <v>2005</v>
       </c>
       <c r="D637" t="n">
-        <v>378701227.497983</v>
+        <v>4032288390.05954</v>
       </c>
     </row>
     <row r="638">
@@ -10243,7 +10269,7 @@
         <v>2006</v>
       </c>
       <c r="D638" t="n">
-        <v>389072011.48657</v>
+        <v>4487684500.2419</v>
       </c>
     </row>
     <row r="639">
@@ -10257,7 +10283,7 @@
         <v>2007</v>
       </c>
       <c r="D639" t="n">
-        <v>392664004.056555</v>
+        <v>3981937623.89599</v>
       </c>
     </row>
     <row r="640">
@@ -10271,7 +10297,7 @@
         <v>2008</v>
       </c>
       <c r="D640" t="n">
-        <v>398236281.068065</v>
+        <v>4757267756.28444</v>
       </c>
     </row>
     <row r="641">
@@ -10285,7 +10311,7 @@
         <v>2009</v>
       </c>
       <c r="D641" t="n">
-        <v>408788624.693212</v>
+        <v>5533279305.70189</v>
       </c>
     </row>
     <row r="642">
@@ -10299,7 +10325,7 @@
         <v>2010</v>
       </c>
       <c r="D642" t="n">
-        <v>420990130.715215</v>
+        <v>5680388968.83963</v>
       </c>
     </row>
     <row r="643">
@@ -10313,7 +10339,7 @@
         <v>2011</v>
       </c>
       <c r="D643" t="n">
-        <v>435920712.727345</v>
+        <v>5733746827.83571</v>
       </c>
     </row>
     <row r="644">
@@ -10327,7 +10353,7 @@
         <v>2012</v>
       </c>
       <c r="D644" t="n">
-        <v>449147949.052065</v>
+        <v>7018183376.1695</v>
       </c>
     </row>
     <row r="645">
@@ -10341,7 +10367,7 @@
         <v>2013</v>
       </c>
       <c r="D645" t="n">
-        <v>463008610.152647</v>
+        <v>7747686264.36643</v>
       </c>
     </row>
     <row r="646">
@@ -10367,7 +10393,7 @@
         <v>2000</v>
       </c>
       <c r="D647" t="n">
-        <v>3901896766.10805</v>
+        <v>15048484777.309</v>
       </c>
     </row>
     <row r="648">
@@ -10381,7 +10407,7 @@
         <v>2001</v>
       </c>
       <c r="D648" t="n">
-        <v>4275677096.5447</v>
+        <v>15824383072.6914</v>
       </c>
     </row>
     <row r="649">
@@ -10395,7 +10421,7 @@
         <v>2002</v>
       </c>
       <c r="D649" t="n">
-        <v>4435671994.00337</v>
+        <v>16545562690.9822</v>
       </c>
     </row>
     <row r="650">
@@ -10409,7 +10435,7 @@
         <v>2003</v>
       </c>
       <c r="D650" t="n">
-        <v>5135105944.32836</v>
+        <v>17294310441.3783</v>
       </c>
     </row>
     <row r="651">
@@ -10423,7 +10449,7 @@
         <v>2004</v>
       </c>
       <c r="D651" t="n">
-        <v>4042032313.88201</v>
+        <v>18413428834.7846</v>
       </c>
     </row>
     <row r="652">
@@ -10437,7 +10463,7 @@
         <v>2005</v>
       </c>
       <c r="D652" t="n">
-        <v>4032288390.05954</v>
+        <v>19756371751.0399</v>
       </c>
     </row>
     <row r="653">
@@ -10451,7 +10477,7 @@
         <v>2006</v>
       </c>
       <c r="D653" t="n">
-        <v>4487684500.2419</v>
+        <v>21708310982.3175</v>
       </c>
     </row>
     <row r="654">
@@ -10465,7 +10491,7 @@
         <v>2007</v>
       </c>
       <c r="D654" t="n">
-        <v>3981937623.89599</v>
+        <v>22726617664.2917</v>
       </c>
     </row>
     <row r="655">
@@ -10479,7 +10505,7 @@
         <v>2008</v>
       </c>
       <c r="D655" t="n">
-        <v>4757267756.28444</v>
+        <v>23760188094.3482</v>
       </c>
     </row>
     <row r="656">
@@ -10493,7 +10519,7 @@
         <v>2009</v>
       </c>
       <c r="D656" t="n">
-        <v>5533279305.70189</v>
+        <v>23001832278.9495</v>
       </c>
     </row>
     <row r="657">
@@ -10507,7 +10533,7 @@
         <v>2010</v>
       </c>
       <c r="D657" t="n">
-        <v>5680388968.83963</v>
+        <v>24515409164.1585</v>
       </c>
     </row>
     <row r="658">
@@ -10521,7 +10547,7 @@
         <v>2011</v>
       </c>
       <c r="D658" t="n">
-        <v>5733746827.83571</v>
+        <v>25777542713.1728</v>
       </c>
     </row>
     <row r="659">
@@ -10535,7 +10561,7 @@
         <v>2012</v>
       </c>
       <c r="D659" t="n">
-        <v>7018183376.1695</v>
+        <v>26997601471.5094</v>
       </c>
     </row>
     <row r="660">
@@ -10549,7 +10575,7 @@
         <v>2013</v>
       </c>
       <c r="D660" t="n">
-        <v>7747686264.36643</v>
+        <v>27834325129.961</v>
       </c>
     </row>
     <row r="661">
@@ -10574,9 +10600,7 @@
       <c r="C662" t="n">
         <v>2000</v>
       </c>
-      <c r="D662" t="n">
-        <v>15048484777.309</v>
-      </c>
+      <c r="D662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
@@ -10588,9 +10612,7 @@
       <c r="C663" t="n">
         <v>2001</v>
       </c>
-      <c r="D663" t="n">
-        <v>15824383072.6914</v>
-      </c>
+      <c r="D663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
@@ -10602,9 +10624,7 @@
       <c r="C664" t="n">
         <v>2002</v>
       </c>
-      <c r="D664" t="n">
-        <v>16545562690.9822</v>
-      </c>
+      <c r="D664"/>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -10616,9 +10636,7 @@
       <c r="C665" t="n">
         <v>2003</v>
       </c>
-      <c r="D665" t="n">
-        <v>17294310441.3783</v>
-      </c>
+      <c r="D665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
@@ -10630,9 +10648,7 @@
       <c r="C666" t="n">
         <v>2004</v>
       </c>
-      <c r="D666" t="n">
-        <v>18413428834.7846</v>
-      </c>
+      <c r="D666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
@@ -10645,7 +10661,7 @@
         <v>2005</v>
       </c>
       <c r="D667" t="n">
-        <v>19756371751.0399</v>
+        <v>16432852653.3283</v>
       </c>
     </row>
     <row r="668">
@@ -10658,9 +10674,7 @@
       <c r="C668" t="n">
         <v>2006</v>
       </c>
-      <c r="D668" t="n">
-        <v>21708310982.3175</v>
-      </c>
+      <c r="D668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
@@ -10672,9 +10686,7 @@
       <c r="C669" t="n">
         <v>2007</v>
       </c>
-      <c r="D669" t="n">
-        <v>22726617664.2917</v>
-      </c>
+      <c r="D669"/>
     </row>
     <row r="670">
       <c r="A670" t="s">
@@ -10686,9 +10698,7 @@
       <c r="C670" t="n">
         <v>2008</v>
       </c>
-      <c r="D670" t="n">
-        <v>23760188094.3482</v>
-      </c>
+      <c r="D670"/>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -10700,9 +10710,7 @@
       <c r="C671" t="n">
         <v>2009</v>
       </c>
-      <c r="D671" t="n">
-        <v>23001832278.9495</v>
-      </c>
+      <c r="D671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
@@ -10714,9 +10722,7 @@
       <c r="C672" t="n">
         <v>2010</v>
       </c>
-      <c r="D672" t="n">
-        <v>24515409164.1585</v>
-      </c>
+      <c r="D672"/>
     </row>
     <row r="673">
       <c r="A673" t="s">
@@ -10728,9 +10734,7 @@
       <c r="C673" t="n">
         <v>2011</v>
       </c>
-      <c r="D673" t="n">
-        <v>25777542713.1728</v>
-      </c>
+      <c r="D673"/>
     </row>
     <row r="674">
       <c r="A674" t="s">
@@ -10742,9 +10746,7 @@
       <c r="C674" t="n">
         <v>2012</v>
       </c>
-      <c r="D674" t="n">
-        <v>26997601471.5094</v>
-      </c>
+      <c r="D674"/>
     </row>
     <row r="675">
       <c r="A675" t="s">
@@ -10756,9 +10758,7 @@
       <c r="C675" t="n">
         <v>2013</v>
       </c>
-      <c r="D675" t="n">
-        <v>27834325129.961</v>
-      </c>
+      <c r="D675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
@@ -41302,9 +41302,7 @@
       <c r="C3002" t="n">
         <v>2000</v>
       </c>
-      <c r="D3002" t="n">
-        <v>57610307535.477</v>
-      </c>
+      <c r="D3002"/>
     </row>
     <row r="3003">
       <c r="A3003" t="s">
@@ -41316,9 +41314,7 @@
       <c r="C3003" t="n">
         <v>2001</v>
       </c>
-      <c r="D3003" t="n">
-        <v>63849182347.7963</v>
-      </c>
+      <c r="D3003"/>
     </row>
     <row r="3004">
       <c r="A3004" t="s">
@@ -41330,9 +41326,7 @@
       <c r="C3004" t="n">
         <v>2002</v>
       </c>
-      <c r="D3004" t="n">
-        <v>67402212708.8064</v>
-      </c>
+      <c r="D3004"/>
     </row>
     <row r="3005">
       <c r="A3005" t="s">
@@ -41344,9 +41338,7 @@
       <c r="C3005" t="n">
         <v>2003</v>
       </c>
-      <c r="D3005" t="n">
-        <v>73985240818.9292</v>
-      </c>
+      <c r="D3005"/>
     </row>
     <row r="3006">
       <c r="A3006" t="s">
@@ -41358,9 +41350,7 @@
       <c r="C3006" t="n">
         <v>2004</v>
       </c>
-      <c r="D3006" t="n">
-        <v>82855924002.9322</v>
-      </c>
+      <c r="D3006"/>
     </row>
     <row r="3007">
       <c r="A3007" t="s">
@@ -41373,7 +41363,7 @@
         <v>2005</v>
       </c>
       <c r="D3007" t="n">
-        <v>85157018069.3504</v>
+        <v>2467918387631.48</v>
       </c>
     </row>
     <row r="3008">
@@ -41386,9 +41376,7 @@
       <c r="C3008" t="n">
         <v>2006</v>
       </c>
-      <c r="D3008" t="n">
-        <v>90904152990.3765</v>
-      </c>
+      <c r="D3008"/>
     </row>
     <row r="3009">
       <c r="A3009" t="s">
@@ -41400,9 +41388,7 @@
       <c r="C3009" t="n">
         <v>2007</v>
       </c>
-      <c r="D3009" t="n">
-        <v>98129435715.0797</v>
-      </c>
+      <c r="D3009"/>
     </row>
     <row r="3010">
       <c r="A3010" t="s">
@@ -41414,9 +41400,7 @@
       <c r="C3010" t="n">
         <v>2008</v>
       </c>
-      <c r="D3010" t="n">
-        <v>101058870625.939</v>
-      </c>
+      <c r="D3010"/>
     </row>
     <row r="3011">
       <c r="A3011" t="s">
@@ -41428,9 +41412,7 @@
       <c r="C3011" t="n">
         <v>2009</v>
       </c>
-      <c r="D3011" t="n">
-        <v>85032730268.1163</v>
-      </c>
+      <c r="D3011"/>
     </row>
     <row r="3012">
       <c r="A3012" t="s">
@@ -41442,9 +41424,7 @@
       <c r="C3012" t="n">
         <v>2010</v>
       </c>
-      <c r="D3012" t="n">
-        <v>89164813262.5219</v>
-      </c>
+      <c r="D3012"/>
     </row>
     <row r="3013">
       <c r="A3013" t="s">
@@ -41456,9 +41436,7 @@
       <c r="C3013" t="n">
         <v>2011</v>
       </c>
-      <c r="D3013" t="n">
-        <v>93752312207.6135</v>
-      </c>
+      <c r="D3013"/>
     </row>
     <row r="3014">
       <c r="A3014" t="s">
@@ -41470,9 +41448,7 @@
       <c r="C3014" t="n">
         <v>2012</v>
       </c>
-      <c r="D3014" t="n">
-        <v>97972485250.7737</v>
-      </c>
+      <c r="D3014"/>
     </row>
     <row r="3015">
       <c r="A3015" t="s">
@@ -41508,7 +41484,9 @@
       <c r="C3017" t="n">
         <v>2000</v>
       </c>
-      <c r="D3017"/>
+      <c r="D3017" t="n">
+        <v>57610307535.477</v>
+      </c>
     </row>
     <row r="3018">
       <c r="A3018" t="s">
@@ -41520,7 +41498,9 @@
       <c r="C3018" t="n">
         <v>2001</v>
       </c>
-      <c r="D3018"/>
+      <c r="D3018" t="n">
+        <v>63849182347.7963</v>
+      </c>
     </row>
     <row r="3019">
       <c r="A3019" t="s">
@@ -41532,7 +41512,9 @@
       <c r="C3019" t="n">
         <v>2002</v>
       </c>
-      <c r="D3019"/>
+      <c r="D3019" t="n">
+        <v>67402212708.8064</v>
+      </c>
     </row>
     <row r="3020">
       <c r="A3020" t="s">
@@ -41544,7 +41526,9 @@
       <c r="C3020" t="n">
         <v>2003</v>
       </c>
-      <c r="D3020"/>
+      <c r="D3020" t="n">
+        <v>73985240818.9292</v>
+      </c>
     </row>
     <row r="3021">
       <c r="A3021" t="s">
@@ -41556,7 +41540,9 @@
       <c r="C3021" t="n">
         <v>2004</v>
       </c>
-      <c r="D3021"/>
+      <c r="D3021" t="n">
+        <v>82855924002.9322</v>
+      </c>
     </row>
     <row r="3022">
       <c r="A3022" t="s">
@@ -41569,7 +41555,7 @@
         <v>2005</v>
       </c>
       <c r="D3022" t="n">
-        <v>2467918387631.48</v>
+        <v>85157018069.3504</v>
       </c>
     </row>
     <row r="3023">
@@ -41582,7 +41568,9 @@
       <c r="C3023" t="n">
         <v>2006</v>
       </c>
-      <c r="D3023"/>
+      <c r="D3023" t="n">
+        <v>90904152990.3765</v>
+      </c>
     </row>
     <row r="3024">
       <c r="A3024" t="s">
@@ -41594,7 +41582,9 @@
       <c r="C3024" t="n">
         <v>2007</v>
       </c>
-      <c r="D3024"/>
+      <c r="D3024" t="n">
+        <v>98129435715.0797</v>
+      </c>
     </row>
     <row r="3025">
       <c r="A3025" t="s">
@@ -41606,7 +41596,9 @@
       <c r="C3025" t="n">
         <v>2008</v>
       </c>
-      <c r="D3025"/>
+      <c r="D3025" t="n">
+        <v>101058870625.939</v>
+      </c>
     </row>
     <row r="3026">
       <c r="A3026" t="s">
@@ -41618,7 +41610,9 @@
       <c r="C3026" t="n">
         <v>2009</v>
       </c>
-      <c r="D3026"/>
+      <c r="D3026" t="n">
+        <v>85032730268.1163</v>
+      </c>
     </row>
     <row r="3027">
       <c r="A3027" t="s">
@@ -41630,7 +41624,9 @@
       <c r="C3027" t="n">
         <v>2010</v>
       </c>
-      <c r="D3027"/>
+      <c r="D3027" t="n">
+        <v>89164813262.5219</v>
+      </c>
     </row>
     <row r="3028">
       <c r="A3028" t="s">
@@ -41642,7 +41638,9 @@
       <c r="C3028" t="n">
         <v>2011</v>
       </c>
-      <c r="D3028"/>
+      <c r="D3028" t="n">
+        <v>93752312207.6135</v>
+      </c>
     </row>
     <row r="3029">
       <c r="A3029" t="s">
@@ -41654,7 +41652,9 @@
       <c r="C3029" t="n">
         <v>2012</v>
       </c>
-      <c r="D3029"/>
+      <c r="D3029" t="n">
+        <v>97972485250.7737</v>
+      </c>
     </row>
     <row r="3030">
       <c r="A3030" t="s">
@@ -45053,22 +45053,48 @@
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="C33" t="n">
+        <v>3895776665.88013</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4201846004.17414</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4436469201.6836</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4843268408.91928</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5333123594.0625</v>
+      </c>
       <c r="H33" t="n">
-        <v>16432852653.3283</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
+        <v>6005719072.865</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6666653863.48111</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7356681152.26087</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7809638363.19815</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7811037663.3869</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8246726636.70559</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8873662171.86469</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9556052922.04851</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10230077260.5995</v>
+      </c>
       <c r="Q33"/>
     </row>
     <row r="34">
@@ -45079,46 +45105,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>3895776665.88013</v>
+        <v>12937553189.6488</v>
       </c>
       <c r="D34" t="n">
-        <v>4201846004.17414</v>
+        <v>13422680312.3556</v>
       </c>
       <c r="E34" t="n">
-        <v>4436469201.6836</v>
+        <v>14119821159.1193</v>
       </c>
       <c r="F34" t="n">
-        <v>4843268408.91928</v>
+        <v>15031496061.4768</v>
       </c>
       <c r="G34" t="n">
-        <v>5333123594.0625</v>
+        <v>15798594287.2076</v>
       </c>
       <c r="H34" t="n">
-        <v>6005719072.865</v>
+        <v>16099188628.4891</v>
       </c>
       <c r="I34" t="n">
-        <v>6666653863.48111</v>
+        <v>16870168495.5382</v>
       </c>
       <c r="J34" t="n">
-        <v>7356681152.26087</v>
+        <v>17235207701.5762</v>
       </c>
       <c r="K34" t="n">
-        <v>7809638363.19815</v>
+        <v>17862667608.3295</v>
       </c>
       <c r="L34" t="n">
-        <v>7811037663.3869</v>
+        <v>18442586947.9482</v>
       </c>
       <c r="M34" t="n">
-        <v>8246726636.70559</v>
+        <v>18922025339.5606</v>
       </c>
       <c r="N34" t="n">
-        <v>8873662171.86469</v>
+        <v>19700900148.1493</v>
       </c>
       <c r="O34" t="n">
-        <v>9556052922.04851</v>
+        <v>20489201245.9182</v>
       </c>
       <c r="P34" t="n">
-        <v>10230077260.5995</v>
+        <v>21538701444.0993</v>
       </c>
       <c r="Q34"/>
     </row>
@@ -45130,46 +45156,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>12937553189.6488</v>
+        <v>1000524172612.37</v>
       </c>
       <c r="D35" t="n">
-        <v>13422680312.3556</v>
+        <v>1015467571904.28</v>
       </c>
       <c r="E35" t="n">
-        <v>14119821159.1193</v>
+        <v>1047134201413.85</v>
       </c>
       <c r="F35" t="n">
-        <v>15031496061.4768</v>
+        <v>1067673210912.1</v>
       </c>
       <c r="G35" t="n">
-        <v>15798594287.2076</v>
+        <v>1104248036856.42</v>
       </c>
       <c r="H35" t="n">
-        <v>16099188628.4891</v>
+        <v>1140229252686.86</v>
       </c>
       <c r="I35" t="n">
-        <v>16870168495.5382</v>
+        <v>1175549409072.03</v>
       </c>
       <c r="J35" t="n">
-        <v>17235207701.5762</v>
+        <v>1200468038335.14</v>
       </c>
       <c r="K35" t="n">
-        <v>17862667608.3295</v>
+        <v>1213718580435.41</v>
       </c>
       <c r="L35" t="n">
-        <v>18442586947.9482</v>
+        <v>1178479566354.25</v>
       </c>
       <c r="M35" t="n">
-        <v>18922025339.5606</v>
+        <v>1215678682086.19</v>
       </c>
       <c r="N35" t="n">
-        <v>19700900148.1493</v>
+        <v>1247437228727.46</v>
       </c>
       <c r="O35" t="n">
-        <v>20489201245.9182</v>
+        <v>1269453951314.42</v>
       </c>
       <c r="P35" t="n">
-        <v>21538701444.0993</v>
+        <v>1299425622044.09</v>
       </c>
       <c r="Q35"/>
     </row>
@@ -45180,48 +45206,22 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="n">
-        <v>1000524172612.37</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1015467571904.28</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1047134201413.85</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1067673210912.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1104248036856.42</v>
-      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
       <c r="H36" t="n">
-        <v>1140229252686.86</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1175549409072.03</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1200468038335.14</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1213718580435.41</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1178479566354.25</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1215678682086.19</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1247437228727.46</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1269453951314.42</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1299425622044.09</v>
-      </c>
+        <v>938319881.232312</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
       <c r="Q36"/>
     </row>
     <row r="37">
@@ -45231,17 +45231,33 @@
       <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
+      <c r="C37" t="n">
+        <v>1215258786.80143</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1277103511.35038</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1322273027.39273</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1259376683.97121</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1323594252.6461</v>
+      </c>
       <c r="H37" t="n">
-        <v>938319881.232312</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
+        <v>1340079423.86551</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1441637270.85877</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1561054397.85884</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1612870294.49378</v>
+      </c>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -45256,33 +45272,15 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>1215258786.80143</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1277103511.35038</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1322273027.39273</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1259376683.97121</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1323594252.6461</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1340079423.86551</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1441637270.85877</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1561054397.85884</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1612870294.49378</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -45297,12 +45295,24 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
+      <c r="C39" t="n">
+        <v>3001026482.96485</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3342748523.20584</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3505230563.52313</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3216154662.94968</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4523320577.96</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5622160309.08409</v>
+      </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -45321,31 +45331,47 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>3001026482.96485</v>
+        <v>97809273432.2686</v>
       </c>
       <c r="D40" t="n">
-        <v>3342748523.20584</v>
+        <v>101296357443.611</v>
       </c>
       <c r="E40" t="n">
-        <v>3505230563.52313</v>
+        <v>102931150815.737</v>
       </c>
       <c r="F40" t="n">
-        <v>3216154662.94968</v>
+        <v>105216392836.559</v>
       </c>
       <c r="G40" t="n">
-        <v>4523320577.96</v>
+        <v>108949357663.241</v>
       </c>
       <c r="H40" t="n">
-        <v>5622160309.08409</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
+        <v>113944210966.988</v>
+      </c>
+      <c r="I40" t="n">
+        <v>113421898590.508</v>
+      </c>
+      <c r="J40" t="n">
+        <v>120704291245.254</v>
+      </c>
+      <c r="K40" t="n">
+        <v>130681106420.677</v>
+      </c>
+      <c r="L40" t="n">
+        <v>130224861743.726</v>
+      </c>
+      <c r="M40" t="n">
+        <v>136676382175.293</v>
+      </c>
+      <c r="N40" t="n">
+        <v>146611061561.248</v>
+      </c>
+      <c r="O40" t="n">
+        <v>156819572254.149</v>
+      </c>
+      <c r="P40" t="n">
+        <v>163855302164.352</v>
+      </c>
       <c r="Q40"/>
     </row>
     <row r="41">
@@ -45356,46 +45382,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>97809273432.2686</v>
+        <v>1399832114798.97</v>
       </c>
       <c r="D41" t="n">
-        <v>101296357443.611</v>
+        <v>1512548272799.14</v>
       </c>
       <c r="E41" t="n">
-        <v>102931150815.737</v>
+        <v>1656846856861.49</v>
       </c>
       <c r="F41" t="n">
-        <v>105216392836.559</v>
+        <v>1830451402780.66</v>
       </c>
       <c r="G41" t="n">
-        <v>108949357663.241</v>
+        <v>2022335659518.7</v>
       </c>
       <c r="H41" t="n">
-        <v>113944210966.988</v>
+        <v>2240793900040.27</v>
       </c>
       <c r="I41" t="n">
-        <v>113421898590.508</v>
+        <v>2538415813243.29</v>
       </c>
       <c r="J41" t="n">
-        <v>120704291245.254</v>
+        <v>2910157305227.76</v>
       </c>
       <c r="K41" t="n">
-        <v>130681106420.677</v>
+        <v>3202832697965.55</v>
       </c>
       <c r="L41" t="n">
-        <v>130224861743.726</v>
+        <v>3470560710807.94</v>
       </c>
       <c r="M41" t="n">
-        <v>136676382175.293</v>
+        <v>3823452180801.79</v>
       </c>
       <c r="N41" t="n">
-        <v>146611061561.248</v>
+        <v>4158066528066.08</v>
       </c>
       <c r="O41" t="n">
-        <v>156819572254.149</v>
+        <v>4507391998945.02</v>
       </c>
       <c r="P41" t="n">
-        <v>163855302164.352</v>
+        <v>4841980602267.76</v>
       </c>
       <c r="Q41"/>
     </row>
@@ -45407,46 +45433,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>1399832114798.97</v>
+        <v>120050316058.262</v>
       </c>
       <c r="D42" t="n">
-        <v>1512548272799.14</v>
+        <v>121725741417.032</v>
       </c>
       <c r="E42" t="n">
-        <v>1656846856861.49</v>
+        <v>124493399780.212</v>
       </c>
       <c r="F42" t="n">
-        <v>1830451402780.66</v>
+        <v>128427988975.556</v>
       </c>
       <c r="G42" t="n">
-        <v>2022335659518.7</v>
+        <v>135144874507.512</v>
       </c>
       <c r="H42" t="n">
-        <v>2240793900040.27</v>
+        <v>141255145063.339</v>
       </c>
       <c r="I42" t="n">
-        <v>2538415813243.29</v>
+        <v>150809440489.055</v>
       </c>
       <c r="J42" t="n">
-        <v>2910157305227.76</v>
+        <v>160752454321.937</v>
       </c>
       <c r="K42" t="n">
-        <v>3202832697965.55</v>
+        <v>165992968260.144</v>
       </c>
       <c r="L42" t="n">
-        <v>3470560710807.94</v>
+        <v>169444657156.407</v>
       </c>
       <c r="M42" t="n">
-        <v>3823452180801.79</v>
+        <v>175390013035.563</v>
       </c>
       <c r="N42" t="n">
-        <v>4158066528066.08</v>
+        <v>185230258498.12</v>
       </c>
       <c r="O42" t="n">
-        <v>4507391998945.02</v>
+        <v>193914194641.896</v>
       </c>
       <c r="P42" t="n">
-        <v>4841980602267.76</v>
+        <v>203771418734.545</v>
       </c>
       <c r="Q42"/>
     </row>
@@ -45457,47 +45483,45 @@
       <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" t="n">
-        <v>120050316058.262</v>
-      </c>
+      <c r="C43"/>
       <c r="D43" t="n">
-        <v>121725741417.032</v>
+        <v>348415591.733809</v>
       </c>
       <c r="E43" t="n">
-        <v>124493399780.212</v>
+        <v>354283406.230115</v>
       </c>
       <c r="F43" t="n">
-        <v>128427988975.556</v>
+        <v>361329286.313893</v>
       </c>
       <c r="G43" t="n">
-        <v>135144874507.512</v>
+        <v>367715427.418712</v>
       </c>
       <c r="H43" t="n">
-        <v>141255145063.339</v>
+        <v>378701227.497983</v>
       </c>
       <c r="I43" t="n">
-        <v>150809440489.055</v>
+        <v>389072011.48657</v>
       </c>
       <c r="J43" t="n">
-        <v>160752454321.937</v>
+        <v>392664004.056555</v>
       </c>
       <c r="K43" t="n">
-        <v>165992968260.144</v>
+        <v>398236281.068065</v>
       </c>
       <c r="L43" t="n">
-        <v>169444657156.407</v>
+        <v>408788624.693212</v>
       </c>
       <c r="M43" t="n">
-        <v>175390013035.563</v>
+        <v>420990130.715215</v>
       </c>
       <c r="N43" t="n">
-        <v>185230258498.12</v>
+        <v>435920712.727345</v>
       </c>
       <c r="O43" t="n">
-        <v>193914194641.896</v>
+        <v>449147949.052065</v>
       </c>
       <c r="P43" t="n">
-        <v>203771418734.545</v>
+        <v>463008610.152647</v>
       </c>
       <c r="Q43"/>
     </row>
@@ -45508,45 +45532,47 @@
       <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="n">
+        <v>3901896766.10805</v>
+      </c>
       <c r="D44" t="n">
-        <v>348415591.733809</v>
+        <v>4275677096.5447</v>
       </c>
       <c r="E44" t="n">
-        <v>354283406.230115</v>
+        <v>4435671994.00337</v>
       </c>
       <c r="F44" t="n">
-        <v>361329286.313893</v>
+        <v>5135105944.32836</v>
       </c>
       <c r="G44" t="n">
-        <v>367715427.418712</v>
+        <v>4042032313.88201</v>
       </c>
       <c r="H44" t="n">
-        <v>378701227.497983</v>
+        <v>4032288390.05954</v>
       </c>
       <c r="I44" t="n">
-        <v>389072011.48657</v>
+        <v>4487684500.2419</v>
       </c>
       <c r="J44" t="n">
-        <v>392664004.056555</v>
+        <v>3981937623.89599</v>
       </c>
       <c r="K44" t="n">
-        <v>398236281.068065</v>
+        <v>4757267756.28444</v>
       </c>
       <c r="L44" t="n">
-        <v>408788624.693212</v>
+        <v>5533279305.70189</v>
       </c>
       <c r="M44" t="n">
-        <v>420990130.715215</v>
+        <v>5680388968.83963</v>
       </c>
       <c r="N44" t="n">
-        <v>435920712.727345</v>
+        <v>5733746827.83571</v>
       </c>
       <c r="O44" t="n">
-        <v>449147949.052065</v>
+        <v>7018183376.1695</v>
       </c>
       <c r="P44" t="n">
-        <v>463008610.152647</v>
+        <v>7747686264.36643</v>
       </c>
       <c r="Q44"/>
     </row>
@@ -45558,46 +45584,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>3901896766.10805</v>
+        <v>15048484777.309</v>
       </c>
       <c r="D45" t="n">
-        <v>4275677096.5447</v>
+        <v>15824383072.6914</v>
       </c>
       <c r="E45" t="n">
-        <v>4435671994.00337</v>
+        <v>16545562690.9822</v>
       </c>
       <c r="F45" t="n">
-        <v>5135105944.32836</v>
+        <v>17294310441.3783</v>
       </c>
       <c r="G45" t="n">
-        <v>4042032313.88201</v>
+        <v>18413428834.7846</v>
       </c>
       <c r="H45" t="n">
-        <v>4032288390.05954</v>
+        <v>19756371751.0399</v>
       </c>
       <c r="I45" t="n">
-        <v>4487684500.2419</v>
+        <v>21708310982.3175</v>
       </c>
       <c r="J45" t="n">
-        <v>3981937623.89599</v>
+        <v>22726617664.2917</v>
       </c>
       <c r="K45" t="n">
-        <v>4757267756.28444</v>
+        <v>23760188094.3482</v>
       </c>
       <c r="L45" t="n">
-        <v>5533279305.70189</v>
+        <v>23001832278.9495</v>
       </c>
       <c r="M45" t="n">
-        <v>5680388968.83963</v>
+        <v>24515409164.1585</v>
       </c>
       <c r="N45" t="n">
-        <v>5733746827.83571</v>
+        <v>25777542713.1728</v>
       </c>
       <c r="O45" t="n">
-        <v>7018183376.1695</v>
+        <v>26997601471.5094</v>
       </c>
       <c r="P45" t="n">
-        <v>7747686264.36643</v>
+        <v>27834325129.961</v>
       </c>
       <c r="Q45"/>
     </row>
@@ -45608,48 +45634,22 @@
       <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="n">
-        <v>15048484777.309</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15824383072.6914</v>
-      </c>
-      <c r="E46" t="n">
-        <v>16545562690.9822</v>
-      </c>
-      <c r="F46" t="n">
-        <v>17294310441.3783</v>
-      </c>
-      <c r="G46" t="n">
-        <v>18413428834.7846</v>
-      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
       <c r="H46" t="n">
-        <v>19756371751.0399</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21708310982.3175</v>
-      </c>
-      <c r="J46" t="n">
-        <v>22726617664.2917</v>
-      </c>
-      <c r="K46" t="n">
-        <v>23760188094.3482</v>
-      </c>
-      <c r="L46" t="n">
-        <v>23001832278.9495</v>
-      </c>
-      <c r="M46" t="n">
-        <v>24515409164.1585</v>
-      </c>
-      <c r="N46" t="n">
-        <v>25777542713.1728</v>
-      </c>
-      <c r="O46" t="n">
-        <v>26997601471.5094</v>
-      </c>
-      <c r="P46" t="n">
-        <v>27834325129.961</v>
-      </c>
+        <v>16432852653.3283</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
       <c r="Q46"/>
     </row>
     <row r="47">
@@ -51844,45 +51844,21 @@
       <c r="B202" t="s">
         <v>405</v>
       </c>
-      <c r="C202" t="n">
-        <v>57610307535.477</v>
-      </c>
-      <c r="D202" t="n">
-        <v>63849182347.7963</v>
-      </c>
-      <c r="E202" t="n">
-        <v>67402212708.8064</v>
-      </c>
-      <c r="F202" t="n">
-        <v>73985240818.9292</v>
-      </c>
-      <c r="G202" t="n">
-        <v>82855924002.9322</v>
-      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
       <c r="H202" t="n">
-        <v>85157018069.3504</v>
-      </c>
-      <c r="I202" t="n">
-        <v>90904152990.3765</v>
-      </c>
-      <c r="J202" t="n">
-        <v>98129435715.0797</v>
-      </c>
-      <c r="K202" t="n">
-        <v>101058870625.939</v>
-      </c>
-      <c r="L202" t="n">
-        <v>85032730268.1163</v>
-      </c>
-      <c r="M202" t="n">
-        <v>89164813262.5219</v>
-      </c>
-      <c r="N202" t="n">
-        <v>93752312207.6135</v>
-      </c>
-      <c r="O202" t="n">
-        <v>97972485250.7737</v>
-      </c>
+        <v>2467918387631.48</v>
+      </c>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
       <c r="P202"/>
       <c r="Q202"/>
     </row>
@@ -51893,21 +51869,45 @@
       <c r="B203" t="s">
         <v>407</v>
       </c>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
+      <c r="C203" t="n">
+        <v>57610307535.477</v>
+      </c>
+      <c r="D203" t="n">
+        <v>63849182347.7963</v>
+      </c>
+      <c r="E203" t="n">
+        <v>67402212708.8064</v>
+      </c>
+      <c r="F203" t="n">
+        <v>73985240818.9292</v>
+      </c>
+      <c r="G203" t="n">
+        <v>82855924002.9322</v>
+      </c>
       <c r="H203" t="n">
-        <v>2467918387631.48</v>
-      </c>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
-      <c r="O203"/>
+        <v>85157018069.3504</v>
+      </c>
+      <c r="I203" t="n">
+        <v>90904152990.3765</v>
+      </c>
+      <c r="J203" t="n">
+        <v>98129435715.0797</v>
+      </c>
+      <c r="K203" t="n">
+        <v>101058870625.939</v>
+      </c>
+      <c r="L203" t="n">
+        <v>85032730268.1163</v>
+      </c>
+      <c r="M203" t="n">
+        <v>89164813262.5219</v>
+      </c>
+      <c r="N203" t="n">
+        <v>93752312207.6135</v>
+      </c>
+      <c r="O203" t="n">
+        <v>97972485250.7737</v>
+      </c>
       <c r="P203"/>
       <c r="Q203"/>
     </row>
